--- a/src/test/resources/TestData/testdata.xlsx
+++ b/src/test/resources/TestData/testdata.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium testing\BrilliusTesting\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\repository20\BrilliusTesting\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A8298B-65EB-4C16-869F-CA83AE31D748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE6EBA-F42E-4E16-9E24-4B76E42EFE2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="UserLoginTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
